--- a/FIXED_ROI/test.xlsx
+++ b/FIXED_ROI/test.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F003" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F002" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="M003" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F005" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F004" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F006" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F007" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F019" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F020" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F023" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F024" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F027" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="F003" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="F002" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="M003" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="F005" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="F004" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="F006" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="F007" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="F019" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="F020" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="F023" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="F024" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="F027" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -71,6 +71,74 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -365,11 +433,11 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -388,7 +456,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -839,7 +907,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1498,7 +1566,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -2157,7 +2225,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="25">
       <c r="B25" t="inlineStr">
@@ -2212,38 +2280,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A28:F28"/>
+  <dimension ref="A10:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>919,886,152,92</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>801,805,152,115</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>970,808,157,103</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0,20,110,122</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>828,822,150,98</t>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2170,1995,285,150</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2312,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="4">
       <c r="E4" t="inlineStr">
@@ -2297,7 +2345,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -2700,7 +2748,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -3359,7 +3407,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -4018,7 +4066,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -4677,7 +4725,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -5540,7 +5588,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">

--- a/FIXED_ROI/test.xlsx
+++ b/FIXED_ROI/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="1050" windowWidth="35175" windowHeight="20115" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="F023" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="F024" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="F027" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="F018" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="F016" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -28,7 +30,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -41,6 +43,15 @@
       <charset val="129"/>
       <family val="3"/>
       <sz val="8"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -64,8 +75,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -431,14 +446,460 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="B1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>-18,7,-4,13</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>-12,-22,7,8</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>-14,-10,4,-2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>-7,-2,7,-7</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>13,-24,-1,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-7,-24,-3,26</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-14,-10,4,-2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-7,-2,7,-7</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>13,-24,-1,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-12,-22,7,8</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-14,-10,4,-2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-7,-2,7,-7</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>13,-24,-1,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-16,-26,-2,22</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-14,-10,4,-2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-7,-2,7,-7</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>13,-24,-1,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>24,-7,-46,-23</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-10,-2,-41,-20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-30,3,-36,-15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-20,-14,-19,-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>24,-7,-46,-23</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-10,-2,-41,-20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-30,3,-36,-15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-20,-14,-19,-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>48,3,-101,-44</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-33,1,-112,-51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-60,6,-72,-30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-20,-14,-19,-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>27,4,-27,-4</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-8,-3,-14,-7</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-30,-6,-38,-18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-20,-23,-21,-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>37,-15,47,54</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-2,-12,12,27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-39,-15,32,47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-32,-29,47,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>76,-7,116,107</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-7,-1,93,85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-78,-7,42,88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-32,-29,47,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40,-3,-3,-14</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-4,-3,48,23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-41,-13,9,16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-39,-59,51,-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>32,2,27,17</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-12,9,86,23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-47,-3,0,13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-42,-45,51,-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0,-7,-39,7</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>39,-2,-32,26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85,-4,-46,1</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>81,-29,-49,-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>-66,-52,10,28</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>-32,-35,49,57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>119,-46,-26,31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>93,-84,-5,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>-30,-8,-16,1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4,2,-6,8</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>68,2,-31,-5</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>61,-25,-36,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>-35,-15,3,-7</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7,-13,3,1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>58,5,-16,-12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>53,-22,-14,-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>-31,-22,2,12</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>-7,-2,5,-1</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>18,-5,14,5</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>18,-32,16,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>-38,-20,-13,14</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>-7,-2,5,-1</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>18,-5,14,5</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>112,-87,-5,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>-31,-22,2,12</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>-7,-2,5,-1</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>18,-5,14,5</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>40,-51,-18,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>-40,0,10,5</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>-27,-3,22,8</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>9,-5,13,3</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>22,-25,2,-14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
@@ -2274,29 +2735,1645 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>928,989,123,69</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>943,957,127,67</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>933,943,125,68</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>945,918,123,76</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>940,913,128,86</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>962,950,120,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>933,1124,120,83</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>948,1092,124,81</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>938,1078,122,82</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>950,1053,120,90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>945,1048,125,100</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>967,1085,117,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>950,1126,130,74</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>965,1094,134,72</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>955,1080,132,73</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>967,1055,130,81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>962,1050,135,91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>984,1087,127,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>933,789,125,68</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>948,757,129,66</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>938,743,127,67</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>950,718,125,75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>945,713,130,85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>967,750,122,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>972,980,145,58</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>950,948,167,63</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>975,928,166,66</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>982,904,174,71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>980,906,176,71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>967,931,177,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>999,1075,162,66</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>972,1046,148,48</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>997,1026,147,51</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1004,1002,155,56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1002,1004,157,56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>989,1029,158,68</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>952,1071,135,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>931,965,171,64</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>903,931,151,50</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>928,911,150,53</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>935,887,158,58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>933,889,160,58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>920,914,161,70</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>972,1073,137,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>997,813,149,56</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>972,775,156,52</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>997,755,155,55</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1004,731,163,60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1002,733,165,60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>989,758,166,72</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>987,1073,127,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>999,970,125,68</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>960,928,118,81</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>987,918,113,79</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1002,901,120,79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>999,901,125,76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>980,926,110,88</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>975,1073,31,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>967,1076,140,65</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>928,1034,133,78</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>955,1024,128,76</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>970,1007,135,76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>967,1007,140,73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>948,1032,125,85</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1043,1082,147,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>955,806,130,59</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>916,764,123,72</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>943,754,118,70</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>958,737,125,70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>950,705,147,88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>936,762,115,79</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1095,1090,144,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>955,596,133,58</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>916,554,126,71</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>943,544,121,69</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>958,527,128,69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>955,527,133,66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>936,552,118,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>938,1014,117,86</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>967,975,113,73</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>935,970,116,73</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>911,950,122,74</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>918,943,123,86</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>943,967,112,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>894,1075,114,86</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>923,1036,110,73</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>889,1011,125,67</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>859,987,133,61</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>867,975,132,78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>899,1004,115,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>906,943,115,91</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>935,904,111,78</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>899,879,120,61</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>864,855,135,58</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>877,857,132,66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>906,877,115,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>921,901,122,72</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>950,862,118,59</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>908,837,135,67</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>889,820,137,71</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>901,818,130,66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>933,850,120,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>850,989,174,76</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>889,943,162,78</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>862,938,167,86</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>840,918,184,84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>859,916,172,73</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>882,950,169,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>857,1025,162,84</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>896,979,150,86</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>869,974,155,94</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>828,943,183,71</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>866,952,160,81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>867,970,171,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>806,935,166,93</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>845,889,154,95</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>818,884,159,103</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>796,864,176,101</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>815,862,164,90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>833,884,171,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>833,867,173,66</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>864,825,169,71</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>852,823,164,68</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>837,808,172,76</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>842,813,172,61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>872,825,164,76</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>980,970,127,81</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>972,955,120,91</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>987,948,127,93</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>977,945,123,91</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>1002,933,129,83</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>999,950,140,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>985,1105,124,95</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>977,1090,117,105</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>992,1083,124,107</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>982,1080,120,105</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1007,1068,126,97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1004,1085,137,105</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1002,1107,134,86</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>994,1092,127,96</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1009,1085,134,98</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>999,1082,130,96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1024,1070,136,88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1021,1087,147,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>985,770,129,80</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>977,755,122,90</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>992,748,129,92</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>982,745,125,90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1007,733,131,82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1004,750,142,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1016,970,133,73</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1002,943,174,78</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1009,948,171,93</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1004,935,176,91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1024,933,166,93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1026,943,176,100</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1038,1068,114,58</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1024,1041,155,63</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1031,1046,152,78</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1026,1033,157,76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1046,1019,179,93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1048,1041,157,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>969,953,117,60</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>955,926,158,65</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>957,916,162,76</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>957,906,160,83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>980,899,169,78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>977,916,167,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1038,788,120,59</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1024,770,163,67</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1026,761,167,79</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1021,752,142,63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1048,742,159,76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1055,761,143,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1004,960,118,120</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>992,935,112,101</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>989,945,108,91</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>992,928,110,113</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>994,933,110,105</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>999,943,110,105</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>972,1066,133,117</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>960,1041,127,98</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>953,1031,125,86</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>960,1019,120,93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>955,1016,120,91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>965,1024,98,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>953,766,127,89</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>940,742,118,86</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>938,739,125,98</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>943,735,105,83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>940,722,123,96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>945,742,96,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>950,570,130,86</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>943,551,127,81</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>940,541,128,81</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>945,531,113,91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>943,521,120,81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>950,526,113,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>940,1002,96,85</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>918,982,133,73</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>916,984,130,84</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>921,975,127,83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>923,955,115,86</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>911,962,127,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>869,1038,130,91</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>877,1031,132,59</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>869,1026,137,83</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>872,1011,132,74</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>874,1006,128,81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>867,1024,127,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>886,923,111,76</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>864,884,142,88</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>884,899,125,73</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>872,886,137,74</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>879,889,125,76</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>874,894,130,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>908,891,123,62</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>904,874,139,61</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>913,872,123,71</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>906,859,132,62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>913,862,123,83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>906,869,118,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>882,970,176,85</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>879,950,176,83</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>886,953,184,90</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>882,948,178,78</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>908,940,170,91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>901,948,172,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>889,1006,164,93</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>886,986,164,91</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>893,989,172,98</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>877,962,169,79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>894,972,171,74</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>908,984,160,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>838,916,168,102</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>835,896,168,100</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>842,899,176,107</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>838,894,170,95</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>855,894,171,90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>857,894,164,102</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>864,879,174,81</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>864,852,184,71</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>884,847,162,71</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>867,840,176,78</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>896,845,162,83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>894,864,161,71</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A10:A10"/>
+  <dimension ref="A7:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
+    <row r="7">
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>POSE</t>
+        </is>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U7" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="O8" s="1" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-39</v>
+      </c>
+      <c r="S8" t="n">
+        <v>32</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-100</v>
+      </c>
+      <c r="U8" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="O9" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-12</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-10</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-7</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-15</v>
+      </c>
+    </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2170,1995,285,150</t>
-        </is>
+          <t>943,1058,130,64</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>948,1055,115,67</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>982,1070,113,64</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>911,1068,113,54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1043,1065,120,66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>867,1073,117,58</t>
+        </is>
+      </c>
+      <c r="O10" s="1" t="inlineStr">
+        <is>
+          <t>w</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>15</v>
+      </c>
+      <c r="R10" t="n">
+        <v>17</v>
+      </c>
+      <c r="S10" t="n">
+        <v>17</v>
+      </c>
+      <c r="T10" t="n">
+        <v>10</v>
+      </c>
+      <c r="U10" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="O11" s="1" t="inlineStr">
+        <is>
+          <t>z</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>13</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-2</v>
+      </c>
+      <c r="U11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>943</v>
+      </c>
+      <c r="L17" t="n">
+        <v>948</v>
+      </c>
+      <c r="M17" t="n">
+        <v>982</v>
+      </c>
+      <c r="N17" t="n">
+        <v>911</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1043</v>
+      </c>
+      <c r="P17" t="n">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1058</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1055</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1070</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1068</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1065</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>w</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>130</v>
+      </c>
+      <c r="L19" t="n">
+        <v>115</v>
+      </c>
+      <c r="M19" t="n">
+        <v>113</v>
+      </c>
+      <c r="N19" t="n">
+        <v>113</v>
+      </c>
+      <c r="O19" t="n">
+        <v>120</v>
+      </c>
+      <c r="P19" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>64</v>
+      </c>
+      <c r="L20" t="n">
+        <v>67</v>
+      </c>
+      <c r="M20" t="n">
+        <v>64</v>
+      </c>
+      <c r="N20" t="n">
+        <v>51</v>
+      </c>
+      <c r="O20" t="n">
+        <v>66</v>
+      </c>
+      <c r="P20" t="n">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
